--- a/target/test-classes/data/Testdata.xlsx
+++ b/target/test-classes/data/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samit\GitHub\DemoProject\Project\src\test\java\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE84AD03-79B5-48DF-A91C-C83F2C016A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F635C64D-03F2-4A09-B453-5FADB3EEBA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B92C9B6D-6985-4FDB-87CE-5C80E3231A7B}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
